--- a/GestorReceitas/junho/CAF.xlsx
+++ b/GestorReceitas/junho/CAF.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="185">
   <si>
     <t xml:space="preserve">Nome</t>
   </si>
@@ -573,6 +573,9 @@
   </si>
   <si>
     <t xml:space="preserve">Yara Vaz Oliveira</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -691,9 +694,9 @@
   <dimension ref="A1:AH231"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="AC95" activeCellId="0" sqref="AC95"/>
+      <selection pane="bottomLeft" activeCell="AD110" activeCellId="0" sqref="AD110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -702,16 +705,18 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.14"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="3" min="3" style="1" width="12.42"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="4" min="4" style="1" width="2.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="2.69"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="7" min="6" style="1" width="2.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="8" style="1" width="2.69"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="14" min="13" style="1" width="3.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="15" style="1" width="3.79"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="21" min="20" style="1" width="3.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="22" style="1" width="3.79"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="28" min="27" style="1" width="3.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="29" style="1" width="3.79"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="34" min="34" style="1" width="3.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="5" style="1" width="2.69"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="11" min="10" style="1" width="2.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="2.69"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="13" min="13" style="1" width="3.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="14" style="1" width="3.79"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="18" min="17" style="1" width="3.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="19" style="1" width="3.79"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="22" min="22" style="1" width="3.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="3.79"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="25" min="24" style="1" width="3.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="26" style="1" width="3.79"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="34" min="31" style="1" width="3.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="11.53"/>
   </cols>
   <sheetData>
@@ -829,7 +834,7 @@
       <c r="C2" s="1" t="n">
         <v>300362838</v>
       </c>
-      <c r="I2" s="1" t="n">
+      <c r="H2" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -865,37 +870,31 @@
       <c r="C5" s="1" t="n">
         <v>289953316</v>
       </c>
+      <c r="E5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="H5" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="S5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="V5" s="1" t="n">
+      <c r="T5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U5" s="1" t="n">
         <v>1</v>
       </c>
       <c r="W5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="X5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -920,16 +919,7 @@
       <c r="C7" s="1" t="n">
         <v>307498190</v>
       </c>
-      <c r="H7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" s="1" t="n">
+      <c r="N7" s="1" t="n">
         <v>1</v>
       </c>
       <c r="O7" s="1" t="n">
@@ -938,31 +928,22 @@
       <c r="P7" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="V7" s="1" t="n">
+      <c r="S7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U7" s="1" t="n">
         <v>1</v>
       </c>
       <c r="W7" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="X7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="AC7" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AD7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE7" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -987,34 +968,40 @@
       <c r="C9" s="1" t="n">
         <v>285029908</v>
       </c>
+      <c r="E9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="H9" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="V9" s="1" t="n">
+      <c r="N9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U9" s="1" t="n">
         <v>1</v>
       </c>
       <c r="W9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="X9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z9" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1031,61 +1018,28 @@
       <c r="E10" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="F10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="H10" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I10" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="V10" s="1" t="n">
+      <c r="N10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U10" s="1" t="n">
         <v>1</v>
       </c>
       <c r="W10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="X10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG10" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1099,6 +1053,18 @@
       <c r="C11" s="1" t="n">
         <v>288824520</v>
       </c>
+      <c r="Z11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
@@ -1135,58 +1101,46 @@
       <c r="E14" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="F14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="H14" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L14" s="1" t="n">
+      <c r="N14" s="1" t="n">
         <v>1</v>
       </c>
       <c r="O14" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="P14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="S14" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="V14" s="1" t="n">
+      <c r="T14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U14" s="1" t="n">
         <v>1</v>
       </c>
       <c r="W14" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="X14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y14" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="Z14" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="AA14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="AC14" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AD14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG14" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1266,7 +1220,10 @@
       <c r="C21" s="1" t="n">
         <v>306150352</v>
       </c>
-      <c r="E21" s="1" t="n">
+      <c r="F21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H21" s="1" t="n">
@@ -1275,43 +1232,25 @@
       <c r="I21" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J21" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L21" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="O21" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q21" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="V21" s="1" t="n">
+      <c r="P21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U21" s="1" t="n">
         <v>1</v>
       </c>
       <c r="W21" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="X21" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y21" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="Z21" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC21" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD21" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF21" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG21" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1372,58 +1311,37 @@
       <c r="E26" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H26" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L26" s="1" t="n">
+      <c r="F26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" s="1" t="n">
         <v>1</v>
       </c>
       <c r="O26" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="P26" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="S26" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="V26" s="1" t="n">
+      <c r="T26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U26" s="1" t="n">
         <v>1</v>
       </c>
       <c r="W26" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="X26" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y26" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="Z26" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="AB26" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="AC26" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AD26" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE26" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF26" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG26" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1437,9 +1355,6 @@
       <c r="C27" s="1" t="n">
         <v>305801384</v>
       </c>
-      <c r="H27" s="1" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
@@ -1454,58 +1369,43 @@
       <c r="E28" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="F28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="H28" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I28" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J28" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K28" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L28" s="1" t="n">
+      <c r="N28" s="1" t="n">
         <v>1</v>
       </c>
       <c r="O28" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="P28" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="R28" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="S28" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="V28" s="1" t="n">
+      <c r="T28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U28" s="1" t="n">
         <v>1</v>
       </c>
       <c r="W28" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="X28" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="Z28" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="AB28" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="AC28" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AE28" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF28" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG28" s="1" t="n">
+      <c r="AD28" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1544,19 +1444,19 @@
       <c r="E31" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="F31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="H31" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I31" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J31" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K31" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L31" s="1" t="n">
+      <c r="N31" s="1" t="n">
         <v>1</v>
       </c>
       <c r="O31" s="1" t="n">
@@ -1565,31 +1465,25 @@
       <c r="P31" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q31" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="S31" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="V31" s="1" t="n">
+      <c r="T31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U31" s="1" t="n">
         <v>1</v>
       </c>
       <c r="W31" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="X31" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y31" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="Z31" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AF31" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG31" s="1" t="n">
+      <c r="AB31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD31" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,9 +1497,6 @@
       <c r="C32" s="1" t="n">
         <v>288353005</v>
       </c>
-      <c r="H32" s="1" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
@@ -1628,48 +1519,6 @@
       <c r="C34" s="1" t="n">
         <v>306021153</v>
       </c>
-      <c r="E34" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H34" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K34" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L34" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O34" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q34" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="R34" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="S34" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="V34" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y34" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z34" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE34" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF34" s="1" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
@@ -1684,55 +1533,43 @@
       <c r="E35" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="F35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="I35" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J35" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K35" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L35" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O35" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P35" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q35" s="1" t="n">
+      <c r="N35" s="1" t="n">
         <v>1</v>
       </c>
       <c r="S35" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="V35" s="1" t="n">
+      <c r="T35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U35" s="1" t="n">
         <v>1</v>
       </c>
       <c r="W35" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="X35" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y35" s="1" t="n">
+      <c r="Z35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB35" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AC35" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AD35" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE35" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF35" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG35" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1757,6 +1594,21 @@
       <c r="C37" s="1" t="n">
         <v>287455114</v>
       </c>
+      <c r="W37" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z37" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB37" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC37" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD37" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
@@ -1768,19 +1620,16 @@
       <c r="C38" s="1" t="n">
         <v>290483948</v>
       </c>
-      <c r="E38" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H38" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD38" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE38" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG38" s="1" t="n">
+      <c r="G38" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O38" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z38" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1819,19 +1668,19 @@
       <c r="E41" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="F41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="H41" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I41" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J41" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K41" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L41" s="1" t="n">
+      <c r="N41" s="1" t="n">
         <v>1</v>
       </c>
       <c r="O41" s="1" t="n">
@@ -1840,43 +1689,28 @@
       <c r="P41" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q41" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="R41" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="S41" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="V41" s="1" t="n">
+      <c r="T41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U41" s="1" t="n">
         <v>1</v>
       </c>
       <c r="W41" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="X41" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y41" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="Z41" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="AB41" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="AC41" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AD41" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE41" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF41" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG41" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1890,13 +1724,22 @@
       <c r="C42" s="1" t="n">
         <v>286049732</v>
       </c>
-      <c r="J42" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K42" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L42" s="1" t="n">
+      <c r="E42" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H42" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" s="1" t="n">
         <v>1</v>
       </c>
       <c r="O42" s="1" t="n">
@@ -1905,40 +1748,25 @@
       <c r="P42" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q42" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="S42" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="V42" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="W42" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="X42" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y42" s="1" t="n">
+      <c r="T42" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U42" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Z42" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="AB42" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="AC42" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AD42" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE42" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF42" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG42" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1963,12 +1791,6 @@
       <c r="C44" s="1" t="n">
         <v>298794284</v>
       </c>
-      <c r="Y44" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC44" s="1" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
@@ -2035,19 +1857,22 @@
       <c r="C50" s="1" t="n">
         <v>304289027</v>
       </c>
+      <c r="E50" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F50" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G50" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="H50" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I50" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J50" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K50" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L50" s="1" t="n">
+      <c r="N50" s="1" t="n">
         <v>1</v>
       </c>
       <c r="O50" s="1" t="n">
@@ -2056,43 +1881,19 @@
       <c r="P50" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q50" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="R50" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="S50" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="V50" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="W50" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="X50" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y50" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z50" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC50" s="1" t="n">
+      <c r="T50" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U50" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB50" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AD50" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE50" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF50" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG50" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2106,19 +1907,22 @@
       <c r="C51" s="1" t="n">
         <v>295962968</v>
       </c>
+      <c r="E51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="H51" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I51" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J51" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K51" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L51" s="1" t="n">
+      <c r="N51" s="1" t="n">
         <v>1</v>
       </c>
       <c r="O51" s="1" t="n">
@@ -2127,40 +1931,28 @@
       <c r="P51" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q51" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="S51" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="V51" s="1" t="n">
+      <c r="T51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U51" s="1" t="n">
         <v>1</v>
       </c>
       <c r="W51" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="X51" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y51" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="Z51" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="AB51" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="AC51" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AD51" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE51" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF51" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG51" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2251,22 +2043,22 @@
       <c r="C59" s="1" t="n">
         <v>294086803</v>
       </c>
-      <c r="E59" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L59" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q59" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="V59" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="W59" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y59" s="1" t="n">
+      <c r="G59" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H59" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O59" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U59" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC59" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2280,6 +2072,9 @@
       <c r="C60" s="1" t="n">
         <v>293669155</v>
       </c>
+      <c r="N60" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="3" t="s">
@@ -2291,52 +2086,34 @@
       <c r="C61" s="1" t="n">
         <v>294138170</v>
       </c>
+      <c r="F61" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G61" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="I61" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J61" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K61" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L61" s="1" t="n">
+      <c r="N61" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O61" s="1" t="n">
         <v>1</v>
       </c>
       <c r="P61" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q61" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="S61" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="T61" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U61" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="W61" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="X61" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y61" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z61" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC61" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD61" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE61" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF61" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG61" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2383,7 +2160,10 @@
       <c r="C65" s="1" t="n">
         <v>306151197</v>
       </c>
-      <c r="E65" s="1" t="n">
+      <c r="F65" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G65" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H65" s="1" t="n">
@@ -2392,43 +2172,25 @@
       <c r="I65" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J65" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L65" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="O65" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q65" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="V65" s="1" t="n">
+      <c r="P65" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S65" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T65" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U65" s="1" t="n">
         <v>1</v>
       </c>
       <c r="W65" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="X65" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y65" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="Z65" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC65" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD65" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF65" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG65" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2500,55 +2262,43 @@
       <c r="E71" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="F71" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G71" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="H71" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I71" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J71" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K71" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L71" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q71" s="1" t="n">
+      <c r="N71" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O71" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P71" s="1" t="n">
         <v>1</v>
       </c>
       <c r="S71" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="V71" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="W71" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="X71" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y71" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z71" s="1" t="n">
+      <c r="T71" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U71" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB71" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AC71" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AD71" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE71" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF71" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG71" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2565,19 +2315,19 @@
       <c r="E72" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="F72" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G72" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="H72" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I72" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J72" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K72" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L72" s="1" t="n">
+      <c r="N72" s="1" t="n">
         <v>1</v>
       </c>
       <c r="O72" s="1" t="n">
@@ -2586,43 +2336,31 @@
       <c r="P72" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q72" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="R72" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="S72" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="V72" s="1" t="n">
+      <c r="T72" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U72" s="1" t="n">
         <v>1</v>
       </c>
       <c r="W72" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="X72" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y72" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="Z72" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="AA72" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB72" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="AC72" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AD72" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE72" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF72" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG72" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2647,19 +2385,13 @@
       <c r="C74" s="1" t="n">
         <v>319224732</v>
       </c>
-      <c r="E74" s="1" t="n">
+      <c r="O74" s="1" t="n">
         <v>1</v>
       </c>
       <c r="S74" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="V74" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="X74" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y74" s="1" t="n">
+      <c r="AB74" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2684,34 +2416,25 @@
       <c r="C76" s="1" t="n">
         <v>305889605</v>
       </c>
-      <c r="E76" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J76" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K76" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L76" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O76" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P76" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q76" s="1" t="n">
+      <c r="N76" s="1" t="n">
         <v>1</v>
       </c>
       <c r="S76" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="V76" s="1" t="n">
+      <c r="W76" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z76" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB76" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC76" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD76" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2728,19 +2451,19 @@
       <c r="E77" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="F77" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G77" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="H77" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I77" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J77" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K77" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L77" s="1" t="n">
+      <c r="N77" s="1" t="n">
         <v>1</v>
       </c>
       <c r="O77" s="1" t="n">
@@ -2749,43 +2472,25 @@
       <c r="P77" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q77" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="R77" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="S77" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="V77" s="1" t="n">
+      <c r="T77" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U77" s="1" t="n">
         <v>1</v>
       </c>
       <c r="W77" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="X77" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y77" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="Z77" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="AB77" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="AC77" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD77" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE77" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF77" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG77" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2799,52 +2504,37 @@
       <c r="C78" s="1" t="n">
         <v>284925683</v>
       </c>
+      <c r="E78" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F78" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G78" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="I78" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J78" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K78" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L78" s="1" t="n">
+      <c r="N78" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O78" s="1" t="n">
         <v>1</v>
       </c>
       <c r="P78" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q78" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="S78" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="T78" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U78" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="W78" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="X78" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y78" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z78" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC78" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD78" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE78" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF78" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG78" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2858,7 +2548,7 @@
       <c r="C79" s="1" t="n">
         <v>290413206</v>
       </c>
-      <c r="W79" s="1" t="n">
+      <c r="U79" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2872,6 +2562,18 @@
       <c r="C80" s="1" t="n">
         <v>289567882</v>
       </c>
+      <c r="Z80" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB80" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC80" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD80" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
@@ -2908,25 +2610,34 @@
       <c r="E83" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="F83" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G83" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H83" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="I83" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J83" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC83" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD83" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE83" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF83" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG83" s="1" t="n">
+      <c r="N83" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O83" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P83" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S83" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U83" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB83" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2940,12 +2651,6 @@
       <c r="C84" s="1" t="n">
         <v>298794098</v>
       </c>
-      <c r="Y84" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC84" s="1" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
@@ -2982,19 +2687,19 @@
       <c r="E87" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="F87" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G87" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="H87" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I87" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J87" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K87" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L87" s="1" t="n">
+      <c r="N87" s="1" t="n">
         <v>1</v>
       </c>
       <c r="O87" s="1" t="n">
@@ -3003,43 +2708,31 @@
       <c r="P87" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q87" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="R87" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="S87" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="V87" s="1" t="n">
+      <c r="T87" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U87" s="1" t="n">
         <v>1</v>
       </c>
       <c r="W87" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="X87" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y87" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="Z87" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="AA87" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB87" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="AC87" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AD87" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE87" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF87" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG87" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3067,55 +2760,31 @@
       <c r="E89" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="F89" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G89" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="H89" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I89" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J89" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K89" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L89" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O89" s="1" t="n">
+      <c r="N89" s="1" t="n">
         <v>1</v>
       </c>
       <c r="P89" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q89" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="S89" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="V89" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y89" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z89" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC89" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD89" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE89" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF89" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG89" s="1" t="n">
+      <c r="T89" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U89" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3132,19 +2801,16 @@
       <c r="E90" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="F90" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G90" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="H90" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I90" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J90" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K90" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L90" s="1" t="n">
+      <c r="N90" s="1" t="n">
         <v>1</v>
       </c>
       <c r="O90" s="1" t="n">
@@ -3153,43 +2819,25 @@
       <c r="P90" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q90" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="R90" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="S90" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="V90" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="W90" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="X90" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y90" s="1" t="n">
+      <c r="T90" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U90" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Z90" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="AB90" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="AC90" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AD90" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE90" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF90" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG90" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3206,55 +2854,46 @@
       <c r="E91" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="F91" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G91" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="H91" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I91" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J91" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K91" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L91" s="1" t="n">
+      <c r="N91" s="1" t="n">
         <v>1</v>
       </c>
       <c r="P91" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q91" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="S91" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="V91" s="1" t="n">
+      <c r="T91" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U91" s="1" t="n">
         <v>1</v>
       </c>
       <c r="W91" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="X91" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y91" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="Z91" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="AB91" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC91" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="AD91" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE91" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF91" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG91" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3290,7 +2929,7 @@
       <c r="C94" s="1" t="n">
         <v>292656050</v>
       </c>
-      <c r="I94" s="1" t="n">
+      <c r="H94" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3348,22 +2987,10 @@
       <c r="C99" s="1" t="n">
         <v>298986752</v>
       </c>
-      <c r="E99" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H99" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="I99" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J99" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K99" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L99" s="1" t="n">
+      <c r="N99" s="1" t="n">
         <v>1</v>
       </c>
       <c r="O99" s="1" t="n">
@@ -3372,37 +2999,16 @@
       <c r="P99" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q99" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="S99" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="T99" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U99" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="W99" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="X99" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y99" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z99" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC99" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD99" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE99" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF99" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG99" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3441,46 +3047,31 @@
       <c r="E102" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="G102" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H102" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="I102" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J102" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K102" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L102" s="1" t="n">
+      <c r="N102" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O102" s="1" t="n">
         <v>1</v>
       </c>
       <c r="P102" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q102" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="S102" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="V102" s="1" t="n">
+      <c r="T102" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U102" s="1" t="n">
         <v>1</v>
       </c>
       <c r="W102" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="X102" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y102" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z102" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD102" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG102" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3505,6 +3096,48 @@
       <c r="C104" s="1" t="n">
         <v>303728795</v>
       </c>
+      <c r="E104" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F104" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G104" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H104" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I104" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N104" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O104" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P104" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S104" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T104" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U104" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB104" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC104" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD104" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="3" t="s">
@@ -3519,28 +3152,7 @@
       <c r="H105" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="K105" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P105" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q105" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="V105" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y105" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z105" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD105" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE105" s="1" t="n">
+      <c r="I105" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3554,25 +3166,7 @@
       <c r="C106" s="1" t="n">
         <v>300637730</v>
       </c>
-      <c r="S106" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="V106" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="W106" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="X106" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y106" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z106" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD106" s="1" t="n">
+      <c r="AB106" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3600,19 +3194,19 @@
       <c r="E108" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="F108" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G108" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="H108" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I108" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J108" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K108" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L108" s="1" t="n">
+      <c r="N108" s="1" t="n">
         <v>1</v>
       </c>
       <c r="O108" s="1" t="n">
@@ -3621,34 +3215,13 @@
       <c r="P108" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q108" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="S108" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="V108" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y108" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z108" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC108" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD108" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE108" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF108" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG108" s="1" t="n">
+      <c r="T108" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U108" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3673,67 +3246,10 @@
       <c r="C110" s="1" t="n">
         <v>289953944</v>
       </c>
-      <c r="E110" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H110" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J110" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K110" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L110" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O110" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P110" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q110" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="R110" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="S110" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="V110" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="W110" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="X110" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y110" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z110" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC110" s="1" t="n">
+      <c r="F110" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AD110" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE110" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF110" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG110" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3747,16 +3263,19 @@
       <c r="C111" s="1" t="n">
         <v>299066630</v>
       </c>
-      <c r="J111" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q111" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="X111" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE111" s="1" t="n">
+      <c r="G111" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O111" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U111" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W111" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,19 +3292,19 @@
       <c r="E112" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="F112" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G112" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="H112" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I112" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J112" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K112" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L112" s="1" t="n">
+      <c r="N112" s="1" t="n">
         <v>1</v>
       </c>
       <c r="O112" s="1" t="n">
@@ -3794,34 +3313,28 @@
       <c r="P112" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q112" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="R112" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="S112" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Y112" s="1" t="n">
+      <c r="T112" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U112" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Z112" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="AA112" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB112" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="AC112" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AD112" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE112" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF112" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG112" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3860,19 +3373,16 @@
       <c r="E115" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="F115" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="H115" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I115" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J115" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K115" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L115" s="1" t="n">
+      <c r="N115" s="1" t="n">
         <v>1</v>
       </c>
       <c r="O115" s="1" t="n">
@@ -3881,37 +3391,16 @@
       <c r="P115" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q115" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="S115" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="V115" s="1" t="n">
+      <c r="T115" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U115" s="1" t="n">
         <v>1</v>
       </c>
       <c r="W115" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="X115" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y115" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z115" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC115" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD115" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE115" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF115" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3925,9 +3414,6 @@
       <c r="C116" s="1" t="n">
         <v>292689675</v>
       </c>
-      <c r="K116" s="1" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
@@ -3939,7 +3425,7 @@
       <c r="C117" s="1" t="n">
         <v>294209018</v>
       </c>
-      <c r="H117" s="1" t="n">
+      <c r="I117" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4000,64 +3486,43 @@
       <c r="E122" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H122" s="1" t="n">
+      <c r="F122" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G122" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I122" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J122" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K122" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L122" s="1" t="n">
+      <c r="N122" s="1" t="n">
         <v>1</v>
       </c>
       <c r="O122" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="P122" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q122" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="R122" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="S122" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="V122" s="1" t="n">
+      <c r="T122" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U122" s="1" t="n">
         <v>1</v>
       </c>
       <c r="W122" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="X122" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y122" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="Z122" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="AB122" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="AC122" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AD122" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE122" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF122" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG122" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4085,19 +3550,19 @@
       <c r="E124" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="F124" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G124" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="H124" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I124" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J124" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K124" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L124" s="1" t="n">
+      <c r="N124" s="1" t="n">
         <v>1</v>
       </c>
       <c r="O124" s="1" t="n">
@@ -4106,40 +3571,28 @@
       <c r="P124" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q124" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="S124" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="V124" s="1" t="n">
+      <c r="T124" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U124" s="1" t="n">
         <v>1</v>
       </c>
       <c r="W124" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="X124" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y124" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="Z124" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="AB124" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="AC124" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AD124" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE124" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF124" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG124" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4167,19 +3620,19 @@
       <c r="E126" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="F126" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G126" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="H126" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I126" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J126" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K126" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L126" s="1" t="n">
+      <c r="N126" s="1" t="n">
         <v>1</v>
       </c>
       <c r="O126" s="1" t="n">
@@ -4188,40 +3641,28 @@
       <c r="P126" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q126" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="S126" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="V126" s="1" t="n">
+      <c r="T126" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U126" s="1" t="n">
         <v>1</v>
       </c>
       <c r="W126" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="X126" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y126" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="Z126" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="AB126" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="AC126" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AD126" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE126" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF126" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG126" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4238,16 +3679,19 @@
       <c r="E127" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="F127" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G127" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="H127" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I127" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J127" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K127" s="1" t="n">
+      <c r="N127" s="1" t="n">
         <v>1</v>
       </c>
       <c r="O127" s="1" t="n">
@@ -4256,43 +3700,28 @@
       <c r="P127" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q127" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="R127" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="S127" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="V127" s="1" t="n">
+      <c r="T127" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U127" s="1" t="n">
         <v>1</v>
       </c>
       <c r="W127" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="X127" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y127" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="Z127" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="AB127" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="AC127" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AD127" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE127" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF127" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG127" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4352,44 +3781,48 @@
       </c>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
-      <c r="F132" s="2"/>
+      <c r="F132" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="G132" s="2"/>
       <c r="H132" s="2"/>
-      <c r="I132" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J132" s="2" t="n">
-        <v>1</v>
-      </c>
+      <c r="I132" s="2"/>
+      <c r="J132" s="2"/>
       <c r="K132" s="2"/>
       <c r="L132" s="2"/>
       <c r="M132" s="2"/>
-      <c r="N132" s="2"/>
-      <c r="O132" s="2"/>
+      <c r="N132" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O132" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="P132" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Q132" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R132" s="2" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q132" s="2"/>
+      <c r="R132" s="2"/>
       <c r="S132" s="2"/>
       <c r="T132" s="2"/>
-      <c r="U132" s="2"/>
+      <c r="U132" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="V132" s="2"/>
       <c r="W132" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="X132" s="2" t="n">
-        <v>1</v>
-      </c>
+      <c r="X132" s="2"/>
       <c r="Y132" s="2"/>
       <c r="Z132" s="2"/>
-      <c r="AA132" s="2"/>
-      <c r="AB132" s="2"/>
-      <c r="AC132" s="2"/>
+      <c r="AA132" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB132" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC132" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="AD132" s="2" t="n">
         <v>1</v>
       </c>
@@ -4408,6 +3841,9 @@
       <c r="C133" s="1" t="n">
         <v>285871544</v>
       </c>
+      <c r="O133" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
@@ -4441,7 +3877,16 @@
       <c r="C136" s="1" t="n">
         <v>287629660</v>
       </c>
-      <c r="V136" s="1" t="n">
+      <c r="N136" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O136" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P136" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z136" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4477,55 +3922,40 @@
       <c r="C139" s="1" t="n">
         <v>293160295</v>
       </c>
+      <c r="E139" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F139" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G139" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="H139" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I139" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J139" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K139" s="1" t="n">
+      <c r="N139" s="1" t="n">
         <v>1</v>
       </c>
       <c r="O139" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="P139" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q139" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="S139" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="V139" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="W139" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="X139" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y139" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z139" s="1" t="n">
+      <c r="U139" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB139" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AC139" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AD139" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE139" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF139" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4539,6 +3969,48 @@
       <c r="C140" s="1" t="n">
         <v>285360124</v>
       </c>
+      <c r="E140" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F140" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G140" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H140" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I140" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O140" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P140" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S140" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T140" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U140" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB140" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC140" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD140" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="3" t="s">
@@ -4553,13 +4025,19 @@
       <c r="E141" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="F141" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G141" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H141" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="I141" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J141" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K141" s="1" t="n">
+      <c r="N141" s="1" t="n">
         <v>1</v>
       </c>
       <c r="O141" s="1" t="n">
@@ -4568,40 +4046,28 @@
       <c r="P141" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q141" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="R141" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="S141" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="V141" s="1" t="n">
+      <c r="T141" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U141" s="1" t="n">
         <v>1</v>
       </c>
       <c r="W141" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="X141" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="Z141" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="AB141" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="AC141" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AD141" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE141" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF141" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG141" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4615,19 +4081,13 @@
       <c r="C142" s="1" t="n">
         <v>319224287</v>
       </c>
-      <c r="E142" s="1" t="n">
+      <c r="O142" s="1" t="n">
         <v>1</v>
       </c>
       <c r="S142" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="V142" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="X142" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y142" s="1" t="n">
+      <c r="AB142" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4652,7 +4112,11 @@
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U154" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -4749,9 +4213,9 @@
   <dimension ref="A1:CG143"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="P47" activeCellId="0" sqref="P47"/>
+      <selection pane="bottomLeft" activeCell="U83" activeCellId="0" sqref="U83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4760,16 +4224,18 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.14"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="3" min="3" style="1" width="12.42"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="4" min="4" style="1" width="2.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="2.69"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="7" min="6" style="1" width="2.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="8" style="1" width="2.69"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="14" min="13" style="1" width="3.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="15" style="1" width="3.79"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="21" min="20" style="1" width="3.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="22" style="1" width="3.79"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="28" min="27" style="1" width="3.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="29" style="1" width="3.79"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="34" min="34" style="1" width="3.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="5" style="1" width="2.69"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="11" min="10" style="1" width="2.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="2.69"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="13" min="13" style="1" width="3.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="14" style="1" width="3.79"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="18" min="17" style="1" width="3.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="19" style="1" width="3.79"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="22" min="22" style="1" width="3.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="3.79"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="25" min="24" style="1" width="3.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="26" style="1" width="3.79"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="34" min="31" style="1" width="3.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="5.84"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="36" min="36" style="1" width="8.71"/>
   </cols>
@@ -4888,7 +4354,10 @@
       <c r="C2" s="1" t="n">
         <v>300362838</v>
       </c>
-      <c r="Z2" s="1" t="n">
+      <c r="N2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U2" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4968,6 +4437,12 @@
       <c r="C9" s="1" t="n">
         <v>285029908</v>
       </c>
+      <c r="F9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
@@ -5067,9 +4542,6 @@
       <c r="C18" s="1" t="n">
         <v>284615846</v>
       </c>
-      <c r="W18" s="1" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
@@ -5106,64 +4578,49 @@
       <c r="E21" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="F21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="H21" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I21" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J21" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K21" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="L21" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="N21" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="O21" s="1" t="n">
         <v>1</v>
       </c>
       <c r="P21" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q21" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="R21" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="S21" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="V21" s="1" t="n">
+      <c r="T21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U21" s="1" t="n">
         <v>1</v>
       </c>
       <c r="W21" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="X21" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y21" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z21" s="1" t="n">
+      <c r="AB21" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AC21" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AD21" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE21" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF21" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG21" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5188,10 +4645,13 @@
       <c r="C23" s="1" t="n">
         <v>297621556</v>
       </c>
-      <c r="Q23" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="R23" s="1" t="n">
+      <c r="F23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U23" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5241,55 +4701,46 @@
       <c r="E27" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I27" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J27" s="1" t="n">
+      <c r="F27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L27" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="N27" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="O27" s="1" t="n">
         <v>1</v>
       </c>
       <c r="P27" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q27" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="R27" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="V27" s="1" t="n">
+      <c r="S27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U27" s="1" t="n">
         <v>1</v>
       </c>
       <c r="W27" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="X27" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y27" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z27" s="1" t="n">
+      <c r="AB27" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AC27" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AD27" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE27" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF27" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG27" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5306,13 +4757,22 @@
       <c r="E28" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="F28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="H28" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I28" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J28" s="1" t="n">
+      <c r="L28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" s="1" t="n">
         <v>1</v>
       </c>
       <c r="O28" s="1" t="n">
@@ -5321,40 +4781,22 @@
       <c r="P28" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q28" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="R28" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="V28" s="1" t="n">
+      <c r="S28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T28" s="1" t="n">
         <v>1</v>
       </c>
       <c r="W28" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="X28" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y28" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z28" s="1" t="n">
+      <c r="AB28" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AC28" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AD28" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE28" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF28" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG28" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5390,43 +4832,19 @@
       <c r="C31" s="1" t="n">
         <v>304866814</v>
       </c>
-      <c r="I31" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J31" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K31" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L31" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O31" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q31" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="R31" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="V31" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="W31" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="X31" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z31" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF31" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG31" s="1" t="n">
+      <c r="E31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD31" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5443,58 +4861,49 @@
       <c r="E32" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="F32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="I32" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J32" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K32" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="L32" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="N32" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="O32" s="1" t="n">
         <v>1</v>
       </c>
       <c r="P32" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q32" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="R32" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="V32" s="1" t="n">
+      <c r="S32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U32" s="1" t="n">
         <v>1</v>
       </c>
       <c r="W32" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="X32" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y32" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z32" s="1" t="n">
+      <c r="AB32" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AC32" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AD32" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE32" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF32" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG32" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5508,19 +4917,10 @@
       <c r="C33" s="1" t="n">
         <v>287986489</v>
       </c>
-      <c r="E33" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K33" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P33" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="S33" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="V33" s="1" t="n">
+      <c r="U33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z33" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5545,6 +4945,9 @@
       <c r="C35" s="1" t="n">
         <v>294437452</v>
       </c>
+      <c r="U35" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
@@ -5578,6 +4981,9 @@
       <c r="C38" s="1" t="n">
         <v>290483948</v>
       </c>
+      <c r="S38" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
@@ -5625,19 +5031,16 @@
       <c r="E42" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H42" s="1" t="n">
+      <c r="F42" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I42" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J42" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K42" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L42" s="1" t="n">
+      <c r="N42" s="1" t="n">
         <v>1</v>
       </c>
       <c r="O42" s="1" t="n">
@@ -5646,40 +5049,28 @@
       <c r="P42" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q42" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="R42" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="V42" s="1" t="n">
+      <c r="S42" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T42" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U42" s="1" t="n">
         <v>1</v>
       </c>
       <c r="W42" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="X42" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y42" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="Z42" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="AB42" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="AC42" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AD42" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE42" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF42" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG42" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5759,58 +5150,34 @@
       <c r="C49" s="1" t="n">
         <v>296838098</v>
       </c>
-      <c r="E49" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H49" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="I49" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J49" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K49" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L49" s="1" t="n">
+      <c r="N49" s="1" t="n">
         <v>1</v>
       </c>
       <c r="O49" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q49" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="R49" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="V49" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="X49" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y49" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z49" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC49" s="1" t="n">
+      <c r="P49" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S49" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T49" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U49" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W49" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB49" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AD49" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE49" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF49" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG49" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5824,6 +5191,9 @@
       <c r="C50" s="1" t="n">
         <v>304289027</v>
       </c>
+      <c r="S50" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="3" t="s">
@@ -5838,16 +5208,16 @@
       <c r="E51" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="F51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="H51" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I51" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J51" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L51" s="1" t="n">
+      <c r="N51" s="1" t="n">
         <v>1</v>
       </c>
       <c r="O51" s="1" t="n">
@@ -5856,40 +5226,28 @@
       <c r="P51" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q51" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="R51" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="V51" s="1" t="n">
+      <c r="S51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U51" s="1" t="n">
         <v>1</v>
       </c>
       <c r="W51" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="X51" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y51" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="Z51" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="AB51" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="AC51" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AD51" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE51" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF51" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG51" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5983,55 +5341,46 @@
       <c r="E59" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="F59" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G59" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="H59" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I59" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J59" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K59" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L59" s="1" t="n">
+      <c r="N59" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O59" s="1" t="n">
         <v>1</v>
       </c>
       <c r="P59" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q59" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="S59" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="T59" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U59" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="W59" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="X59" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y59" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="Z59" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AC59" s="1" t="n">
+      <c r="AB59" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AD59" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE59" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF59" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG59" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6045,10 +5394,7 @@
       <c r="C60" s="1" t="n">
         <v>293669155</v>
       </c>
-      <c r="Q60" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="R60" s="1" t="n">
+      <c r="S60" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6065,58 +5411,49 @@
       <c r="E61" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="F61" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G61" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="H61" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I61" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J61" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K61" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="L61" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="N61" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="O61" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="R61" s="1" t="n">
+      <c r="P61" s="1" t="n">
         <v>1</v>
       </c>
       <c r="S61" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="V61" s="1" t="n">
+      <c r="T61" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U61" s="1" t="n">
         <v>1</v>
       </c>
       <c r="W61" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="X61" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y61" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="Z61" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="AB61" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="AC61" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD61" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE61" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF61" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG61" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6166,64 +5503,49 @@
       <c r="E65" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="F65" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G65" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="H65" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I65" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J65" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K65" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="L65" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="N65" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="O65" s="1" t="n">
         <v>1</v>
       </c>
       <c r="P65" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q65" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="R65" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="S65" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="V65" s="1" t="n">
+      <c r="T65" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U65" s="1" t="n">
         <v>1</v>
       </c>
       <c r="W65" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="X65" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y65" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z65" s="1" t="n">
+      <c r="AB65" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AC65" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AD65" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE65" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF65" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG65" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6292,16 +5614,7 @@
       <c r="C71" s="1" t="n">
         <v>284684813</v>
       </c>
-      <c r="H71" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J71" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="V71" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="W71" s="1" t="n">
+      <c r="U71" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6359,10 +5672,7 @@
       <c r="C76" s="1" t="n">
         <v>305889605</v>
       </c>
-      <c r="L76" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q76" s="1" t="n">
+      <c r="U76" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6387,58 +5697,43 @@
       <c r="C78" s="1" t="n">
         <v>284925683</v>
       </c>
-      <c r="E78" s="1" t="n">
+      <c r="F78" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G78" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H78" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I78" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J78" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K78" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L78" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="R78" s="1" t="n">
+      <c r="N78" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O78" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P78" s="1" t="n">
         <v>1</v>
       </c>
       <c r="S78" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="V78" s="1" t="n">
+      <c r="T78" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U78" s="1" t="n">
         <v>1</v>
       </c>
       <c r="W78" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="X78" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y78" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="Z78" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="AB78" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="AC78" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD78" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE78" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF78" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG78" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6485,6 +5780,27 @@
       <c r="C82" s="1" t="n">
         <v>318126885</v>
       </c>
+      <c r="H82" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O82" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S82" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T82" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U82" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
@@ -6562,40 +5878,16 @@
       <c r="C89" s="1" t="n">
         <v>298838125</v>
       </c>
-      <c r="E89" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H89" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J89" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K89" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="O89" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="R89" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y89" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z89" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD89" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE89" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF89" s="1" t="n">
+      <c r="P89" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T89" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC89" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6612,19 +5904,16 @@
       <c r="E90" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="F90" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G90" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="H90" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I90" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J90" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K90" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L90" s="1" t="n">
+      <c r="N90" s="1" t="n">
         <v>1</v>
       </c>
       <c r="O90" s="1" t="n">
@@ -6633,43 +5922,28 @@
       <c r="P90" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q90" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="R90" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="S90" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="V90" s="1" t="n">
+      <c r="T90" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U90" s="1" t="n">
         <v>1</v>
       </c>
       <c r="W90" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="X90" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y90" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="Z90" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="AB90" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="AC90" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AD90" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE90" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF90" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG90" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6694,7 +5968,7 @@
       <c r="C92" s="1" t="n">
         <v>297031724</v>
       </c>
-      <c r="AF92" s="1" t="n">
+      <c r="S92" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6741,6 +6015,9 @@
       <c r="C96" s="1" t="n">
         <v>299528812</v>
       </c>
+      <c r="E96" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
@@ -6752,6 +6029,9 @@
       <c r="C97" s="1" t="n">
         <v>297466747</v>
       </c>
+      <c r="U97" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
@@ -6774,22 +6054,7 @@
       <c r="C99" s="1" t="n">
         <v>298986752</v>
       </c>
-      <c r="E99" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H99" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J99" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K99" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L99" s="1" t="n">
+      <c r="N99" s="1" t="n">
         <v>1</v>
       </c>
       <c r="O99" s="1" t="n">
@@ -6798,40 +6063,22 @@
       <c r="P99" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q99" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="R99" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="S99" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="T99" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U99" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="W99" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="X99" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y99" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z99" s="1" t="n">
+      <c r="AB99" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AC99" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD99" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE99" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF99" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG99" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6936,40 +6183,16 @@
       <c r="C108" s="1" t="n">
         <v>298838222</v>
       </c>
-      <c r="E108" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H108" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J108" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K108" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="O108" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="R108" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y108" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z108" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD108" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE108" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF108" s="1" t="n">
+      <c r="P108" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T108" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC108" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7000,25 +6223,10 @@
       <c r="H110" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I110" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J110" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K110" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O110" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P110" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q110" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="R110" s="1" t="n">
+      <c r="S110" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z110" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7057,16 +6265,19 @@
       <c r="E113" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="F113" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G113" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="H113" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I113" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J113" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L113" s="1" t="n">
+      <c r="N113" s="1" t="n">
         <v>1</v>
       </c>
       <c r="O113" s="1" t="n">
@@ -7075,43 +6286,28 @@
       <c r="P113" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q113" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="R113" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="S113" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="V113" s="1" t="n">
+      <c r="T113" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U113" s="1" t="n">
         <v>1</v>
       </c>
       <c r="W113" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="X113" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y113" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="Z113" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="AB113" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="AC113" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AD113" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE113" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF113" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG113" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7139,58 +6335,40 @@
       <c r="E115" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="F115" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G115" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="H115" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I115" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J115" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K115" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="L115" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="N115" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="O115" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q115" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="R115" s="1" t="n">
+      <c r="P115" s="1" t="n">
         <v>1</v>
       </c>
       <c r="S115" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="V115" s="1" t="n">
+      <c r="T115" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U115" s="1" t="n">
         <v>1</v>
       </c>
       <c r="W115" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="X115" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y115" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z115" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC115" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD115" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE115" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF115" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7270,19 +6448,16 @@
       <c r="C122" s="1" t="n">
         <v>292550553</v>
       </c>
-      <c r="H122" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J122" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P122" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="W122" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC122" s="1" t="n">
+      <c r="N122" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U122" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB122" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD122" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7340,25 +6515,13 @@
       <c r="C127" s="1" t="n">
         <v>295015160</v>
       </c>
-      <c r="P127" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="S127" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="V127" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="W127" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z127" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC127" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG127" s="1" t="n">
+      <c r="E127" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F127" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U127" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7438,21 +6601,6 @@
       <c r="C134" s="1" t="n">
         <v>306789825</v>
       </c>
-      <c r="H134" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J134" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K134" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L134" s="1" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
@@ -7475,6 +6623,12 @@
       <c r="C136" s="1" t="n">
         <v>287629660</v>
       </c>
+      <c r="N136" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O136" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
@@ -7497,67 +6651,37 @@
       <c r="C138" s="1" t="n">
         <v>291624650</v>
       </c>
-      <c r="E138" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H138" s="1" t="n">
+      <c r="F138" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G138" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I138" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J138" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K138" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L138" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O138" s="1" t="n">
+      <c r="N138" s="1" t="n">
         <v>1</v>
       </c>
       <c r="P138" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q138" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="R138" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="S138" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="V138" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="W138" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="X138" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y138" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z138" s="1" t="n">
+      <c r="T138" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U138" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB138" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AC138" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AD138" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE138" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF138" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG138" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7571,37 +6695,34 @@
       <c r="C139" s="1" t="n">
         <v>293160295</v>
       </c>
-      <c r="J139" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L139" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P139" s="1" t="n">
+      <c r="F139" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G139" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H139" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S139" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T139" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U139" s="1" t="n">
         <v>1</v>
       </c>
       <c r="W139" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="X139" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y139" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z139" s="1" t="n">
+      <c r="AB139" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AC139" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AD139" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE139" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF139" s="1" t="n">
         <v>1</v>
       </c>
     </row>

--- a/GestorReceitas/junho/CAF.xlsx
+++ b/GestorReceitas/junho/CAF.xlsx
@@ -694,7 +694,7 @@
   <dimension ref="A1:AH231"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="AD110" activeCellId="0" sqref="AD110"/>
     </sheetView>
@@ -4215,7 +4215,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="U83" activeCellId="0" sqref="U83"/>
+      <selection pane="bottomLeft" activeCell="CG101" activeCellId="0" sqref="CG101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6103,9 +6103,7 @@
       <c r="C101" s="1" t="n">
         <v>301489769</v>
       </c>
-      <c r="CG101" s="1" t="n">
-        <v>2.22222222222222E+169</v>
-      </c>
+      <c r="CG101" s="1"/>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="3" t="s">
